--- a/data/pca/factorExposure/factorExposure_2017-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02346215074440301</v>
+        <v>0.008697354181140282</v>
       </c>
       <c r="C2">
-        <v>0.004669144077899055</v>
+        <v>0.04362592972427329</v>
       </c>
       <c r="D2">
-        <v>0.03006291399890149</v>
+        <v>0.03016829525792331</v>
       </c>
       <c r="E2">
-        <v>0.009311000875971908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03277142871851771</v>
+      </c>
+      <c r="F2">
+        <v>0.01106303181547014</v>
+      </c>
+      <c r="G2">
+        <v>-0.07795818048840218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01729350488333207</v>
+        <v>0.04317329940649612</v>
       </c>
       <c r="C3">
-        <v>-0.05203432979790874</v>
+        <v>0.09156248007533162</v>
       </c>
       <c r="D3">
-        <v>0.04928269912327722</v>
+        <v>0.01795941274298913</v>
       </c>
       <c r="E3">
-        <v>0.0169538628468811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1019480650830792</v>
+      </c>
+      <c r="F3">
+        <v>0.01250681977620352</v>
+      </c>
+      <c r="G3">
+        <v>-0.1692797348912531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02370885131398656</v>
+        <v>0.05527100336203105</v>
       </c>
       <c r="C4">
-        <v>-0.01056044127692893</v>
+        <v>0.06733387949638919</v>
       </c>
       <c r="D4">
-        <v>0.08024747228462736</v>
+        <v>0.02467915813256051</v>
       </c>
       <c r="E4">
-        <v>-0.01696374980563482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02551328191936271</v>
+      </c>
+      <c r="F4">
+        <v>0.01316944964849627</v>
+      </c>
+      <c r="G4">
+        <v>-0.08836984466786062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01432700175140292</v>
+        <v>0.03687789553571885</v>
       </c>
       <c r="C6">
-        <v>0.0005998011967090656</v>
+        <v>0.05390854278616852</v>
       </c>
       <c r="D6">
-        <v>0.0821110782516099</v>
+        <v>0.01664841144323768</v>
       </c>
       <c r="E6">
-        <v>-0.01116514502611181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0244689516626208</v>
+      </c>
+      <c r="F6">
+        <v>0.01014492467526678</v>
+      </c>
+      <c r="G6">
+        <v>-0.0621372197403042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01091039861821281</v>
+        <v>0.01928711579141439</v>
       </c>
       <c r="C7">
-        <v>-0.004707314651684968</v>
+        <v>0.04113478600257598</v>
       </c>
       <c r="D7">
-        <v>0.04064188649476542</v>
+        <v>0.01322842626072667</v>
       </c>
       <c r="E7">
-        <v>-0.05749154698215002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004999648333806368</v>
+      </c>
+      <c r="F7">
+        <v>-0.001220230019233247</v>
+      </c>
+      <c r="G7">
+        <v>-0.1173698090082896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4.21919092596652e-05</v>
+        <v>0.001771088238013991</v>
       </c>
       <c r="C8">
-        <v>0.003322867312828913</v>
+        <v>0.02367858723102055</v>
       </c>
       <c r="D8">
-        <v>0.003633864135334482</v>
+        <v>0.004047324981112392</v>
       </c>
       <c r="E8">
-        <v>-0.008340556616363775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02039254997539189</v>
+      </c>
+      <c r="F8">
+        <v>0.008257265534007468</v>
+      </c>
+      <c r="G8">
+        <v>-0.05510372495834073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01619012302172575</v>
+        <v>0.03238998058009331</v>
       </c>
       <c r="C9">
-        <v>-0.01196126495960203</v>
+        <v>0.04897805808029253</v>
       </c>
       <c r="D9">
-        <v>0.06043554029411512</v>
+        <v>0.01691262618261573</v>
       </c>
       <c r="E9">
-        <v>-0.006871434529152991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01644711021723224</v>
+      </c>
+      <c r="F9">
+        <v>0.0117888337479466</v>
+      </c>
+      <c r="G9">
+        <v>-0.08367829289422579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02385655516944814</v>
+        <v>0.09943285772078798</v>
       </c>
       <c r="C10">
-        <v>-0.1743607331236576</v>
+        <v>-0.1808752397258643</v>
       </c>
       <c r="D10">
-        <v>-0.0953340368152106</v>
+        <v>-0.01462938893905178</v>
       </c>
       <c r="E10">
-        <v>0.01248735455782527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01896096924130311</v>
+      </c>
+      <c r="F10">
+        <v>-0.0198856830234549</v>
+      </c>
+      <c r="G10">
+        <v>-0.05415800206849598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005763182500899248</v>
+        <v>0.03380074438785185</v>
       </c>
       <c r="C11">
-        <v>-0.001749574734910122</v>
+        <v>0.05520239787061949</v>
       </c>
       <c r="D11">
-        <v>0.04622236030105518</v>
+        <v>0.0025333013749303</v>
       </c>
       <c r="E11">
-        <v>0.003691593203173297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00918175524263143</v>
+      </c>
+      <c r="F11">
+        <v>0.02264004681492526</v>
+      </c>
+      <c r="G11">
+        <v>-0.06752569952195933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006291999930428739</v>
+        <v>0.03541133520992515</v>
       </c>
       <c r="C12">
-        <v>-0.008674908500374326</v>
+        <v>0.04889518763374461</v>
       </c>
       <c r="D12">
-        <v>0.04753264683934894</v>
+        <v>0.006160392726976098</v>
       </c>
       <c r="E12">
-        <v>-0.007735478541641746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0004509345061781334</v>
+      </c>
+      <c r="F12">
+        <v>0.002011788250583635</v>
+      </c>
+      <c r="G12">
+        <v>-0.06354097940185117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02383778046443179</v>
+        <v>0.01451853061275238</v>
       </c>
       <c r="C13">
-        <v>-0.01565162363653451</v>
+        <v>0.03891061555566357</v>
       </c>
       <c r="D13">
-        <v>0.009709871962410729</v>
+        <v>0.0264921247911172</v>
       </c>
       <c r="E13">
-        <v>0.008055996156023844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02913773053714747</v>
+      </c>
+      <c r="F13">
+        <v>0.008609250809857191</v>
+      </c>
+      <c r="G13">
+        <v>-0.09785833227734868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008635942826343739</v>
+        <v>0.007572879177538787</v>
       </c>
       <c r="C14">
-        <v>-0.01316425490848162</v>
+        <v>0.02710257398053285</v>
       </c>
       <c r="D14">
-        <v>0.01101176211111896</v>
+        <v>0.009537699044690939</v>
       </c>
       <c r="E14">
-        <v>-0.008093679490406371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0002545764555020542</v>
+      </c>
+      <c r="F14">
+        <v>-0.005922668484774193</v>
+      </c>
+      <c r="G14">
+        <v>-0.08354654736532002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001601494412890361</v>
+        <v>0.03270964665165414</v>
       </c>
       <c r="C16">
-        <v>-0.008849211877999221</v>
+        <v>0.04889452809946138</v>
       </c>
       <c r="D16">
-        <v>0.04922595933858657</v>
+        <v>0.002041490000850707</v>
       </c>
       <c r="E16">
-        <v>-0.006291342948481871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008066747719775107</v>
+      </c>
+      <c r="F16">
+        <v>0.003723160617799085</v>
+      </c>
+      <c r="G16">
+        <v>-0.07062165240518914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01477043643864702</v>
+        <v>0.01982600118085067</v>
       </c>
       <c r="C19">
-        <v>-0.01694332773517818</v>
+        <v>0.05093572602899066</v>
       </c>
       <c r="D19">
-        <v>0.02320017440666916</v>
+        <v>0.01930466097273404</v>
       </c>
       <c r="E19">
-        <v>-0.004698478369976819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06563663392350542</v>
+      </c>
+      <c r="F19">
+        <v>0.02552230854110235</v>
+      </c>
+      <c r="G19">
+        <v>-0.1141222195637605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0110248325080567</v>
+        <v>0.01381338966744281</v>
       </c>
       <c r="C20">
-        <v>-0.005084639832475481</v>
+        <v>0.03818265004183356</v>
       </c>
       <c r="D20">
-        <v>0.01715624696401917</v>
+        <v>0.01430164853822309</v>
       </c>
       <c r="E20">
-        <v>0.01065183031702181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02739672334225257</v>
+      </c>
+      <c r="F20">
+        <v>-0.008131212938480932</v>
+      </c>
+      <c r="G20">
+        <v>-0.09021358722441646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0150753378711092</v>
+        <v>0.01143104479683829</v>
       </c>
       <c r="C21">
-        <v>-0.01519298904462489</v>
+        <v>0.03968754591332293</v>
       </c>
       <c r="D21">
-        <v>0.02658801753760008</v>
+        <v>0.01869831187773656</v>
       </c>
       <c r="E21">
-        <v>-0.01364737737328702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03964202408333442</v>
+      </c>
+      <c r="F21">
+        <v>0.001684547795989708</v>
+      </c>
+      <c r="G21">
+        <v>-0.1168839655612642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0004617519140398057</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002708506668091201</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002051821564662564</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0007306959467206935</v>
+      </c>
+      <c r="F22">
+        <v>0.0007416551579311127</v>
+      </c>
+      <c r="G22">
+        <v>-0.001607817460696788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.000466083479875638</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002704435651004256</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.000205344979493778</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.00073606337333325</v>
+      </c>
+      <c r="F23">
+        <v>0.0007399400669956232</v>
+      </c>
+      <c r="G23">
+        <v>-0.001616563941562873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004196432472714401</v>
+        <v>0.02715777162853728</v>
       </c>
       <c r="C24">
-        <v>0.004179221510510891</v>
+        <v>0.05154548134054311</v>
       </c>
       <c r="D24">
-        <v>0.04565750370497233</v>
+        <v>0.007284788771752798</v>
       </c>
       <c r="E24">
-        <v>-0.00525284662870314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004710467084132228</v>
+      </c>
+      <c r="F24">
+        <v>0.01507759484390006</v>
+      </c>
+      <c r="G24">
+        <v>-0.07078364508882114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01231477338255184</v>
+        <v>0.04178447968183772</v>
       </c>
       <c r="C25">
-        <v>-0.01334242369259813</v>
+        <v>0.05900145333218807</v>
       </c>
       <c r="D25">
-        <v>0.04954237124145677</v>
+        <v>0.01125182263934976</v>
       </c>
       <c r="E25">
-        <v>-0.004183835423762361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.00174028433701951</v>
+      </c>
+      <c r="F25">
+        <v>0.009435205766548124</v>
+      </c>
+      <c r="G25">
+        <v>-0.07827371860690889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02337598281939354</v>
+        <v>0.01372673878398507</v>
       </c>
       <c r="C26">
-        <v>-0.008458516732344722</v>
+        <v>0.0109634627588983</v>
       </c>
       <c r="D26">
-        <v>-0.003201139970554222</v>
+        <v>0.02388522053484358</v>
       </c>
       <c r="E26">
-        <v>-0.007639204920900864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005348799535797074</v>
+      </c>
+      <c r="F26">
+        <v>-0.006513154582977341</v>
+      </c>
+      <c r="G26">
+        <v>-0.06531815053764191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04754152043094349</v>
+        <v>0.1282265919809074</v>
       </c>
       <c r="C28">
-        <v>-0.2465725206743625</v>
+        <v>-0.2347570751146908</v>
       </c>
       <c r="D28">
-        <v>-0.1340508660337306</v>
+        <v>-0.005695050665878078</v>
       </c>
       <c r="E28">
-        <v>-0.01056911646965861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.005741469610175732</v>
+      </c>
+      <c r="F28">
+        <v>-0.01563940850571505</v>
+      </c>
+      <c r="G28">
+        <v>-0.06525778592643708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009095615889592954</v>
+        <v>0.008915556458342563</v>
       </c>
       <c r="C29">
-        <v>-0.01781049505292231</v>
+        <v>0.02131701051230669</v>
       </c>
       <c r="D29">
-        <v>0.008855243791610951</v>
+        <v>0.008569670515991135</v>
       </c>
       <c r="E29">
-        <v>-0.003083761525655349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001058089265782219</v>
+      </c>
+      <c r="F29">
+        <v>-0.01430123238524501</v>
+      </c>
+      <c r="G29">
+        <v>-0.07602116042967999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02401250688662246</v>
+        <v>0.04042295119431545</v>
       </c>
       <c r="C30">
-        <v>0.002227038120498813</v>
+        <v>0.06818044263607118</v>
       </c>
       <c r="D30">
-        <v>0.06519513043733122</v>
+        <v>0.02943601799514927</v>
       </c>
       <c r="E30">
-        <v>0.04302679504336424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05137274746294895</v>
+      </c>
+      <c r="F30">
+        <v>0.05168544018931457</v>
+      </c>
+      <c r="G30">
+        <v>-0.0842782351525657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01022014345076862</v>
+        <v>0.05216001121253819</v>
       </c>
       <c r="C31">
-        <v>-0.03890256506135314</v>
+        <v>0.03731481749030437</v>
       </c>
       <c r="D31">
-        <v>0.04379673635495567</v>
+        <v>0.003543946618474137</v>
       </c>
       <c r="E31">
-        <v>-0.01009837037068343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003884612014559998</v>
+      </c>
+      <c r="F31">
+        <v>-0.03824895518999481</v>
+      </c>
+      <c r="G31">
+        <v>-0.07729730822271781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004701501746702843</v>
+        <v>0.001160109063918193</v>
       </c>
       <c r="C32">
-        <v>-0.02245490276670078</v>
+        <v>0.02335926042827014</v>
       </c>
       <c r="D32">
-        <v>0.002591935156935114</v>
+        <v>-0.003695858355515347</v>
       </c>
       <c r="E32">
-        <v>-0.05274485999376727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01586589669382932</v>
+      </c>
+      <c r="F32">
+        <v>0.0405454140590536</v>
+      </c>
+      <c r="G32">
+        <v>-0.09390797852999701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01442076881736653</v>
+        <v>0.02667345746450495</v>
       </c>
       <c r="C33">
-        <v>-0.02227987232543326</v>
+        <v>0.0494995615963764</v>
       </c>
       <c r="D33">
-        <v>0.03498252017050013</v>
+        <v>0.0158287562566243</v>
       </c>
       <c r="E33">
-        <v>0.02717627940055319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03361342945018274</v>
+      </c>
+      <c r="F33">
+        <v>0.0201447487134327</v>
+      </c>
+      <c r="G33">
+        <v>-0.1122721088680274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003963841025174481</v>
+        <v>0.03961038180197777</v>
       </c>
       <c r="C34">
-        <v>-0.01454900904077588</v>
+        <v>0.06259026875957026</v>
       </c>
       <c r="D34">
-        <v>0.05386094553273627</v>
+        <v>-0.004597523952290563</v>
       </c>
       <c r="E34">
-        <v>-0.01143327841464409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0008049176249220545</v>
+      </c>
+      <c r="F34">
+        <v>0.02166787106239553</v>
+      </c>
+      <c r="G34">
+        <v>-0.07914941077416142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01335337222657401</v>
+        <v>0.01537243033793892</v>
       </c>
       <c r="C36">
-        <v>-0.01891197669011711</v>
+        <v>0.009131582517189865</v>
       </c>
       <c r="D36">
-        <v>0.005997382208440002</v>
+        <v>0.01211099791144649</v>
       </c>
       <c r="E36">
-        <v>-0.004248961703711282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002439900380501499</v>
+      </c>
+      <c r="F36">
+        <v>-0.005124752661638748</v>
+      </c>
+      <c r="G36">
+        <v>-0.06797887950940974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.002801452292217954</v>
+        <v>0.03230052281873978</v>
       </c>
       <c r="C38">
-        <v>-0.03231111332283237</v>
+        <v>0.03136740368482634</v>
       </c>
       <c r="D38">
-        <v>0.04228369198654978</v>
+        <v>-0.007613810635324215</v>
       </c>
       <c r="E38">
-        <v>-0.00739935969060166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002504375071791451</v>
+      </c>
+      <c r="F38">
+        <v>-0.01597508839309695</v>
+      </c>
+      <c r="G38">
+        <v>-0.07096594873629641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003891774969385583</v>
+        <v>0.03418278368710521</v>
       </c>
       <c r="C39">
-        <v>0.0263448295718001</v>
+        <v>0.08135673511501379</v>
       </c>
       <c r="D39">
-        <v>0.08885050855487193</v>
+        <v>0.01186304015172961</v>
       </c>
       <c r="E39">
-        <v>0.007037757776284018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01932068363602055</v>
+      </c>
+      <c r="F39">
+        <v>0.02779081500816544</v>
+      </c>
+      <c r="G39">
+        <v>-0.06750718001965968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01224923773088114</v>
+        <v>0.0149186990359279</v>
       </c>
       <c r="C40">
-        <v>-0.01405743014658453</v>
+        <v>0.04204123853123878</v>
       </c>
       <c r="D40">
-        <v>0.03132781050188226</v>
+        <v>0.01499006952379793</v>
       </c>
       <c r="E40">
-        <v>-0.00472099483398779</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0203285912940481</v>
+      </c>
+      <c r="F40">
+        <v>-0.01252540469585053</v>
+      </c>
+      <c r="G40">
+        <v>-0.1056061788696606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006803406092861665</v>
+        <v>0.01910417955762201</v>
       </c>
       <c r="C41">
-        <v>-0.02209873833597954</v>
+        <v>1.531613254789075e-05</v>
       </c>
       <c r="D41">
-        <v>-0.009246133336177801</v>
+        <v>0.004145946025242284</v>
       </c>
       <c r="E41">
-        <v>-0.002536910783060289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0008542683729151145</v>
+      </c>
+      <c r="F41">
+        <v>-0.009989754538579174</v>
+      </c>
+      <c r="G41">
+        <v>-0.05505528262692449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09227251030593603</v>
+        <v>0.009215026747526714</v>
       </c>
       <c r="C42">
-        <v>0.03149973254954773</v>
+        <v>0.03702695395393384</v>
       </c>
       <c r="D42">
-        <v>0.239453387579179</v>
+        <v>0.09306704060335168</v>
       </c>
       <c r="E42">
-        <v>0.3944564163736655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02539116564458678</v>
+      </c>
+      <c r="F42">
+        <v>-0.03630062249831072</v>
+      </c>
+      <c r="G42">
+        <v>0.1539730707828482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008055736138461054</v>
+        <v>0.03252414436541919</v>
       </c>
       <c r="C43">
-        <v>-0.02613537386448436</v>
+        <v>0.01465518038658592</v>
       </c>
       <c r="D43">
-        <v>-0.005859443893704241</v>
+        <v>0.006036895736689271</v>
       </c>
       <c r="E43">
-        <v>0.0006083827281793218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01536431357355772</v>
+      </c>
+      <c r="F43">
+        <v>-0.0004869628465267483</v>
+      </c>
+      <c r="G43">
+        <v>-0.08174217051561147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002851033993431981</v>
+        <v>0.01153256923042431</v>
       </c>
       <c r="C44">
-        <v>-0.001305048851070883</v>
+        <v>0.05719577725134237</v>
       </c>
       <c r="D44">
-        <v>0.03981895966881333</v>
+        <v>0.006758462575820814</v>
       </c>
       <c r="E44">
-        <v>-0.00906313642235608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01728618462343736</v>
+      </c>
+      <c r="F44">
+        <v>-0.007728876250554435</v>
+      </c>
+      <c r="G44">
+        <v>-0.08862666384810609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0116219541323199</v>
+        <v>0.007398572202638121</v>
       </c>
       <c r="C46">
-        <v>-0.01429396257078626</v>
+        <v>0.01619279810732168</v>
       </c>
       <c r="D46">
-        <v>0.007666427237198463</v>
+        <v>0.01224796603734409</v>
       </c>
       <c r="E46">
-        <v>0.002147758351497198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0008082178027273267</v>
+      </c>
+      <c r="F46">
+        <v>-0.01388135849583888</v>
+      </c>
+      <c r="G46">
+        <v>-0.07688655202367578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004577957357119032</v>
+        <v>0.07685183824546243</v>
       </c>
       <c r="C47">
-        <v>-0.04692874406837212</v>
+        <v>0.06719819850690772</v>
       </c>
       <c r="D47">
-        <v>0.07175054533273192</v>
+        <v>-0.005365189245572696</v>
       </c>
       <c r="E47">
-        <v>-0.006928954682957462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008905668835841417</v>
+      </c>
+      <c r="F47">
+        <v>-0.05240380638590633</v>
+      </c>
+      <c r="G47">
+        <v>-0.06944557401223103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00420591368965364</v>
+        <v>0.01997693917482226</v>
       </c>
       <c r="C48">
-        <v>-0.02283714892478729</v>
+        <v>0.01242547530149855</v>
       </c>
       <c r="D48">
-        <v>0.01649432211030411</v>
+        <v>0.001414737925456092</v>
       </c>
       <c r="E48">
-        <v>-0.00265972644405074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0005826134582730409</v>
+      </c>
+      <c r="F48">
+        <v>-0.01884753890255131</v>
+      </c>
+      <c r="G48">
+        <v>-0.07240531636403323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007017199859054828</v>
+        <v>0.07516237257469506</v>
       </c>
       <c r="C50">
-        <v>-0.05164198938247515</v>
+        <v>0.06965708910653054</v>
       </c>
       <c r="D50">
-        <v>0.07272922094070396</v>
+        <v>-0.00293376356526355</v>
       </c>
       <c r="E50">
-        <v>-0.03329743948831845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.008743643265035532</v>
+      </c>
+      <c r="F50">
+        <v>-0.05570964340399272</v>
+      </c>
+      <c r="G50">
+        <v>-0.08981896904311717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007480292291606827</v>
+        <v>0.01328946045551769</v>
       </c>
       <c r="C51">
-        <v>-0.01284120714151139</v>
+        <v>0.03539469111917291</v>
       </c>
       <c r="D51">
-        <v>0.001294529472739947</v>
+        <v>0.01044521842808252</v>
       </c>
       <c r="E51">
-        <v>-0.006620412943697395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01746887307055297</v>
+      </c>
+      <c r="F51">
+        <v>0.02619168237649051</v>
+      </c>
+      <c r="G51">
+        <v>-0.1045566770025895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00771760730979499</v>
+        <v>0.08117930494346629</v>
       </c>
       <c r="C53">
-        <v>-0.05694529804357389</v>
+        <v>0.08444572847184498</v>
       </c>
       <c r="D53">
-        <v>0.1289893347196081</v>
+        <v>-0.004489894502704825</v>
       </c>
       <c r="E53">
-        <v>-0.01731848939898016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02912985513824852</v>
+      </c>
+      <c r="F53">
+        <v>-0.06455361479840972</v>
+      </c>
+      <c r="G53">
+        <v>-0.06937939856254338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002262570389301358</v>
+        <v>0.02864565340160742</v>
       </c>
       <c r="C54">
-        <v>-0.03526494025335274</v>
+        <v>0.01565643955916616</v>
       </c>
       <c r="D54">
-        <v>-0.007703198121245611</v>
+        <v>-0.001278249811155178</v>
       </c>
       <c r="E54">
-        <v>0.0003095705073260527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0105560887445765</v>
+      </c>
+      <c r="F54">
+        <v>0.002819613509608078</v>
+      </c>
+      <c r="G54">
+        <v>-0.078525546809567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003752117946144874</v>
+        <v>0.07078022878099445</v>
       </c>
       <c r="C55">
-        <v>-0.03564632823473698</v>
+        <v>0.06901405236830689</v>
       </c>
       <c r="D55">
-        <v>0.1032312352581459</v>
+        <v>-0.005623165062063325</v>
       </c>
       <c r="E55">
-        <v>-0.0008041942336550881</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02495026240656699</v>
+      </c>
+      <c r="F55">
+        <v>-0.06065242633697674</v>
+      </c>
+      <c r="G55">
+        <v>-0.04315798655099711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007309517399896077</v>
+        <v>0.137161015571445</v>
       </c>
       <c r="C56">
-        <v>-0.0816625746936952</v>
+        <v>0.1095077075216149</v>
       </c>
       <c r="D56">
-        <v>0.1645906466715806</v>
+        <v>-0.01307041964671038</v>
       </c>
       <c r="E56">
-        <v>-0.006219422198566511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03289446997527163</v>
+      </c>
+      <c r="F56">
+        <v>-0.07932402281689173</v>
+      </c>
+      <c r="G56">
+        <v>-0.02212460597553451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02404786900361551</v>
+        <v>0.006773891811086548</v>
       </c>
       <c r="C57">
-        <v>-0.008273638783246334</v>
+        <v>0.009401167503709437</v>
       </c>
       <c r="D57">
-        <v>0.04792894565112257</v>
+        <v>0.0236706443481927</v>
       </c>
       <c r="E57">
-        <v>0.004739848605657127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02379107669903383</v>
+      </c>
+      <c r="F57">
+        <v>0.008601443055004401</v>
+      </c>
+      <c r="G57">
+        <v>-0.02765007640718634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0165942118257386</v>
+        <v>0.05739351552740094</v>
       </c>
       <c r="C58">
-        <v>-0.06978485672745494</v>
+        <v>0.05508736781147692</v>
       </c>
       <c r="D58">
-        <v>0.1501819053093064</v>
+        <v>0.03363313094743024</v>
       </c>
       <c r="E58">
-        <v>0.4894426928405947</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.933348419855589</v>
+      </c>
+      <c r="F58">
+        <v>-0.2466646434993412</v>
+      </c>
+      <c r="G58">
+        <v>0.1155378152472208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04574608582945714</v>
+        <v>0.1609807010391919</v>
       </c>
       <c r="C59">
-        <v>-0.2643272954486478</v>
+        <v>-0.1993518062336258</v>
       </c>
       <c r="D59">
-        <v>-0.1302642548196564</v>
+        <v>-0.01055956240140196</v>
       </c>
       <c r="E59">
-        <v>-0.00367191083463493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01863314865821871</v>
+      </c>
+      <c r="F59">
+        <v>0.003373549181442864</v>
+      </c>
+      <c r="G59">
+        <v>-0.04145605163483325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04406251056183864</v>
+        <v>0.2858010745920515</v>
       </c>
       <c r="C60">
-        <v>-0.1598182333626015</v>
+        <v>0.1078841139558542</v>
       </c>
       <c r="D60">
-        <v>0.09826403014098173</v>
+        <v>0.01358000326595601</v>
       </c>
       <c r="E60">
-        <v>-0.01043202902309651</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.004849410292626535</v>
+      </c>
+      <c r="F60">
+        <v>0.3501681347154419</v>
+      </c>
+      <c r="G60">
+        <v>0.1283343719872725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002953081577413769</v>
+        <v>0.03647142416026473</v>
       </c>
       <c r="C61">
-        <v>-0.002240844128551955</v>
+        <v>0.06776670674756319</v>
       </c>
       <c r="D61">
-        <v>0.06639309682352026</v>
+        <v>0.005317855657233959</v>
       </c>
       <c r="E61">
-        <v>-0.00564270029786379</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01236441733943528</v>
+      </c>
+      <c r="F61">
+        <v>0.01587175508863107</v>
+      </c>
+      <c r="G61">
+        <v>-0.06975508026670957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007800820321004666</v>
+        <v>0.01357226660962938</v>
       </c>
       <c r="C63">
-        <v>-0.004046088722664775</v>
+        <v>0.02943489517806972</v>
       </c>
       <c r="D63">
-        <v>0.01947796618182095</v>
+        <v>0.00828717715274156</v>
       </c>
       <c r="E63">
-        <v>-0.01141992453369809</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0007750430663493394</v>
+      </c>
+      <c r="F63">
+        <v>-0.01534414743727159</v>
+      </c>
+      <c r="G63">
+        <v>-0.07347450842497948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009382661987213159</v>
+        <v>0.04701642502788998</v>
       </c>
       <c r="C64">
-        <v>-0.02620473104680136</v>
+        <v>0.04664905515823976</v>
       </c>
       <c r="D64">
-        <v>0.05901383361122495</v>
+        <v>0.006566346757274793</v>
       </c>
       <c r="E64">
-        <v>0.009622397304256338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.002404267473113635</v>
+      </c>
+      <c r="F64">
+        <v>0.008014838944070461</v>
+      </c>
+      <c r="G64">
+        <v>-0.06897231628633894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01617560032159714</v>
+        <v>0.07506328302027188</v>
       </c>
       <c r="C65">
-        <v>0.002566859540705455</v>
+        <v>0.06106231150246772</v>
       </c>
       <c r="D65">
-        <v>0.09580036817232297</v>
+        <v>0.01648598856918541</v>
       </c>
       <c r="E65">
-        <v>-0.0176470367757869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0270100734981556</v>
+      </c>
+      <c r="F65">
+        <v>0.02857749703082224</v>
+      </c>
+      <c r="G65">
+        <v>-0.02743667811390824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.003890438900984744</v>
+        <v>0.04991601933292075</v>
       </c>
       <c r="C66">
-        <v>0.02138997823106678</v>
+        <v>0.1114043873303944</v>
       </c>
       <c r="D66">
-        <v>0.1183722514138054</v>
+        <v>0.01188289879309137</v>
       </c>
       <c r="E66">
-        <v>0.002796080726151368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02761830600843569</v>
+      </c>
+      <c r="F66">
+        <v>0.03700741338900786</v>
+      </c>
+      <c r="G66">
+        <v>-0.08204141684844264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.004070683119796892</v>
+        <v>0.05500536673685947</v>
       </c>
       <c r="C67">
-        <v>-0.05390369579314533</v>
+        <v>0.03541055271450454</v>
       </c>
       <c r="D67">
-        <v>0.0537504999221069</v>
+        <v>-0.005996051702549903</v>
       </c>
       <c r="E67">
-        <v>-0.008530566256057102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004103917736278441</v>
+      </c>
+      <c r="F67">
+        <v>-0.01640820495207755</v>
+      </c>
+      <c r="G67">
+        <v>-0.06366487757936089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0613954782827146</v>
+        <v>0.1551382319347369</v>
       </c>
       <c r="C68">
-        <v>-0.2409211824630016</v>
+        <v>-0.2675026123878554</v>
       </c>
       <c r="D68">
-        <v>-0.1518012018766755</v>
+        <v>0.006537636355184591</v>
       </c>
       <c r="E68">
-        <v>0.02091803647514891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01215634498160974</v>
+      </c>
+      <c r="F68">
+        <v>-0.03082884892916001</v>
+      </c>
+      <c r="G68">
+        <v>-0.02711490847829883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0006374409127233315</v>
+        <v>0.08034987208206074</v>
       </c>
       <c r="C69">
-        <v>-0.03635083092799164</v>
+        <v>0.07047589819840532</v>
       </c>
       <c r="D69">
-        <v>0.07411300158102925</v>
+        <v>-0.009440836416536643</v>
       </c>
       <c r="E69">
-        <v>-0.01331231192918191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02520553427563464</v>
+      </c>
+      <c r="F69">
+        <v>-0.0347008984294717</v>
+      </c>
+      <c r="G69">
+        <v>-0.07171072410765959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04555965219354585</v>
+        <v>0.14168071812113</v>
       </c>
       <c r="C71">
-        <v>-0.2091308508626349</v>
+        <v>-0.2279940455602548</v>
       </c>
       <c r="D71">
-        <v>-0.1137123722277059</v>
+        <v>-0.002071156392983544</v>
       </c>
       <c r="E71">
-        <v>0.01118171629042774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03216447132482069</v>
+      </c>
+      <c r="F71">
+        <v>-0.01643564457962042</v>
+      </c>
+      <c r="G71">
+        <v>-0.05976530013520014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0009606438230415241</v>
+        <v>0.08418715851500075</v>
       </c>
       <c r="C72">
-        <v>-0.03397318013346227</v>
+        <v>0.07289061689606956</v>
       </c>
       <c r="D72">
-        <v>0.1206686390876159</v>
+        <v>-0.007944002248722434</v>
       </c>
       <c r="E72">
-        <v>-0.01368065207663075</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002324061951078257</v>
+      </c>
+      <c r="F72">
+        <v>0.04241613309631968</v>
+      </c>
+      <c r="G72">
+        <v>-0.06252036908842142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05499112289930521</v>
+        <v>0.3740027296772352</v>
       </c>
       <c r="C73">
-        <v>-0.1641144272394805</v>
+        <v>0.1252101986580423</v>
       </c>
       <c r="D73">
-        <v>0.1964272729898476</v>
+        <v>0.02349937356693238</v>
       </c>
       <c r="E73">
-        <v>0.01959135978146676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07331037837351607</v>
+      </c>
+      <c r="F73">
+        <v>0.5681687517642591</v>
+      </c>
+      <c r="G73">
+        <v>0.2253596096240983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003498127484824207</v>
+        <v>0.1045880645342064</v>
       </c>
       <c r="C74">
-        <v>-0.06239324055958258</v>
+        <v>0.1114838578276885</v>
       </c>
       <c r="D74">
-        <v>0.170152790554756</v>
+        <v>-0.009987894124220298</v>
       </c>
       <c r="E74">
-        <v>0.002177633701206329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01172832860948531</v>
+      </c>
+      <c r="F74">
+        <v>-0.06867962270277793</v>
+      </c>
+      <c r="G74">
+        <v>-0.06499145693327686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01330571226079507</v>
+        <v>0.2482899165919407</v>
       </c>
       <c r="C75">
-        <v>-0.1594026736616526</v>
+        <v>0.1514342384728658</v>
       </c>
       <c r="D75">
-        <v>0.3035713844099366</v>
+        <v>-0.03175650004984747</v>
       </c>
       <c r="E75">
-        <v>0.01035668979141282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05810929876281665</v>
+      </c>
+      <c r="F75">
+        <v>-0.1756759562105759</v>
+      </c>
+      <c r="G75">
+        <v>0.04864254115582285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001733834444562452</v>
+        <v>0.1212545000243004</v>
       </c>
       <c r="C76">
-        <v>-0.1026190682331024</v>
+        <v>0.1128511093287869</v>
       </c>
       <c r="D76">
-        <v>0.232727517346147</v>
+        <v>-0.02091667685704144</v>
       </c>
       <c r="E76">
-        <v>-0.03795079730480066</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04129145890290276</v>
+      </c>
+      <c r="F76">
+        <v>-0.1163595406175136</v>
+      </c>
+      <c r="G76">
+        <v>-0.04156031859778441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0140047494460435</v>
+        <v>0.06580457959332779</v>
       </c>
       <c r="C77">
-        <v>-0.0172275035411148</v>
+        <v>0.06293136261152107</v>
       </c>
       <c r="D77">
-        <v>0.04459506600124193</v>
+        <v>0.0127127007021957</v>
       </c>
       <c r="E77">
-        <v>0.0166946258710248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04763572570124834</v>
+      </c>
+      <c r="F77">
+        <v>0.009577939146782921</v>
+      </c>
+      <c r="G77">
+        <v>-0.0550875514996022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005819736548661841</v>
+        <v>0.04182220269930418</v>
       </c>
       <c r="C78">
-        <v>-0.01369277623584828</v>
+        <v>0.05197158010799408</v>
       </c>
       <c r="D78">
-        <v>0.04360147975096972</v>
+        <v>0.005986259247542049</v>
       </c>
       <c r="E78">
-        <v>0.00330645928485365</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02302599112148925</v>
+      </c>
+      <c r="F78">
+        <v>0.03985741083585126</v>
+      </c>
+      <c r="G78">
+        <v>-0.07151350400734692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01663938864874163</v>
+        <v>0.05402213566603185</v>
       </c>
       <c r="C80">
-        <v>-0.07450952171650628</v>
+        <v>0.07172430644771592</v>
       </c>
       <c r="D80">
-        <v>0.2047189677719181</v>
+        <v>0.01037824607988323</v>
       </c>
       <c r="E80">
-        <v>-0.750919376997929</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02532364151120167</v>
+      </c>
+      <c r="F80">
+        <v>0.005316464739178156</v>
+      </c>
+      <c r="G80">
+        <v>-0.5906066930201884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.009521766196418752</v>
+        <v>0.1397649797615226</v>
       </c>
       <c r="C81">
-        <v>-0.09983739617292625</v>
+        <v>0.09648863365519102</v>
       </c>
       <c r="D81">
-        <v>0.1714902633510336</v>
+        <v>-0.01612426646675604</v>
       </c>
       <c r="E81">
-        <v>-0.01759614268507339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03577986639576277</v>
+      </c>
+      <c r="F81">
+        <v>-0.133722927654565</v>
+      </c>
+      <c r="G81">
+        <v>-0.02413828023087884</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.123631788435661</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07004557763238928</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008696611798134832</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08812614264383484</v>
+      </c>
+      <c r="F82">
+        <v>-0.03313593574029841</v>
+      </c>
+      <c r="G82">
+        <v>-0.02662771296953126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007047111923401832</v>
+        <v>0.03585076496634173</v>
       </c>
       <c r="C83">
-        <v>-0.0179325228309079</v>
+        <v>0.02897373403488564</v>
       </c>
       <c r="D83">
-        <v>0.02389143769169486</v>
+        <v>0.006005502078921244</v>
       </c>
       <c r="E83">
-        <v>0.003081598725061141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02722453159960695</v>
+      </c>
+      <c r="F83">
+        <v>0.03421122715099154</v>
+      </c>
+      <c r="G83">
+        <v>-0.0492933548937915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01987844124952904</v>
+        <v>0.2149374233800815</v>
       </c>
       <c r="C85">
-        <v>-0.1275756818107516</v>
+        <v>0.1464692478404809</v>
       </c>
       <c r="D85">
-        <v>0.277668670803391</v>
+        <v>-0.02021224257908001</v>
       </c>
       <c r="E85">
-        <v>-0.001880220167714871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1007866389844145</v>
+      </c>
+      <c r="F85">
+        <v>-0.1405996015668323</v>
+      </c>
+      <c r="G85">
+        <v>0.1032036697696199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009626479560397415</v>
+        <v>0.01318635122147002</v>
       </c>
       <c r="C86">
-        <v>-0.02740113397877552</v>
+        <v>0.02805540719502548</v>
       </c>
       <c r="D86">
-        <v>0.01376898919766917</v>
+        <v>0.0127800823321973</v>
       </c>
       <c r="E86">
-        <v>0.03602290599658257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04568873225782542</v>
+      </c>
+      <c r="F86">
+        <v>0.03517951754841531</v>
+      </c>
+      <c r="G86">
+        <v>-0.1549889677038843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008520353323583958</v>
+        <v>0.02264237774800019</v>
       </c>
       <c r="C87">
-        <v>-0.004052893400616246</v>
+        <v>0.023128680007626</v>
       </c>
       <c r="D87">
-        <v>0.04413640581863524</v>
+        <v>0.01267187923580543</v>
       </c>
       <c r="E87">
-        <v>0.006799848211077889</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08265465296909838</v>
+      </c>
+      <c r="F87">
+        <v>0.01978310280105965</v>
+      </c>
+      <c r="G87">
+        <v>-0.09769978737087973</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02786051935504969</v>
+        <v>0.09068133569277104</v>
       </c>
       <c r="C88">
-        <v>-0.0281820217421927</v>
+        <v>0.06606174371692085</v>
       </c>
       <c r="D88">
-        <v>0.03724209387208065</v>
+        <v>0.02263730046555411</v>
       </c>
       <c r="E88">
-        <v>-0.00211069970900196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007792390021850648</v>
+      </c>
+      <c r="F88">
+        <v>-0.01602840126441072</v>
+      </c>
+      <c r="G88">
+        <v>-0.06159480416292467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08863983818707113</v>
+        <v>0.2354543857641312</v>
       </c>
       <c r="C89">
-        <v>-0.3968234710988601</v>
+        <v>-0.3677949673125871</v>
       </c>
       <c r="D89">
-        <v>-0.2071977995915956</v>
+        <v>0.0001225029664532758</v>
       </c>
       <c r="E89">
-        <v>-0.01798134341319972</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01479752715224142</v>
+      </c>
+      <c r="F89">
+        <v>-0.02612698483412</v>
+      </c>
+      <c r="G89">
+        <v>-0.05629123901045848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06705818866828508</v>
+        <v>0.2091398449065186</v>
       </c>
       <c r="C90">
-        <v>-0.3063140746525223</v>
+        <v>-0.3194761294210001</v>
       </c>
       <c r="D90">
-        <v>-0.1915159102496069</v>
+        <v>-0.00432061556852285</v>
       </c>
       <c r="E90">
-        <v>0.0175750854330484</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003819587274419136</v>
+      </c>
+      <c r="F90">
+        <v>-0.04873561212142493</v>
+      </c>
+      <c r="G90">
+        <v>-0.01965958320726193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.009452336731554978</v>
+        <v>0.1879951986516127</v>
       </c>
       <c r="C91">
-        <v>-0.1382299180790512</v>
+        <v>0.141427701531929</v>
       </c>
       <c r="D91">
-        <v>0.2306896991525929</v>
+        <v>-0.02461593460153721</v>
       </c>
       <c r="E91">
-        <v>-0.02042780682898889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07057005094658564</v>
+      </c>
+      <c r="F91">
+        <v>-0.14948603543835</v>
+      </c>
+      <c r="G91">
+        <v>-0.01291322742343709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03428235057454943</v>
+        <v>0.2027398835891939</v>
       </c>
       <c r="C92">
-        <v>-0.317398450453253</v>
+        <v>-0.2562678502552623</v>
       </c>
       <c r="D92">
-        <v>-0.0759472551922737</v>
+        <v>-0.03832606908632896</v>
       </c>
       <c r="E92">
-        <v>0.02635184381069657</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0310422812450348</v>
+      </c>
+      <c r="F92">
+        <v>-0.06076973825308488</v>
+      </c>
+      <c r="G92">
+        <v>-0.1259113568155694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06529267701877155</v>
+        <v>0.233732953846839</v>
       </c>
       <c r="C93">
-        <v>-0.3284969502631401</v>
+        <v>-0.3167300058570889</v>
       </c>
       <c r="D93">
-        <v>-0.1722485649257494</v>
+        <v>-0.01093565781644021</v>
       </c>
       <c r="E93">
-        <v>0.0409539374437726</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008739396326694763</v>
+      </c>
+      <c r="F93">
+        <v>-0.03110398081221652</v>
+      </c>
+      <c r="G93">
+        <v>-0.02252570164313322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03376807440802972</v>
+        <v>0.3168962124842414</v>
       </c>
       <c r="C94">
-        <v>-0.1639293859288256</v>
+        <v>0.1789415010646021</v>
       </c>
       <c r="D94">
-        <v>0.2547882735857008</v>
+        <v>-0.0204338550668253</v>
       </c>
       <c r="E94">
-        <v>0.01211810056665758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1749842337647634</v>
+      </c>
+      <c r="F94">
+        <v>-0.4775080153745342</v>
+      </c>
+      <c r="G94">
+        <v>0.3175632510839693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004318754305760041</v>
+        <v>0.09777534044350156</v>
       </c>
       <c r="C95">
-        <v>-0.03268425637675913</v>
+        <v>0.08566004008046992</v>
       </c>
       <c r="D95">
-        <v>0.09394673869147159</v>
+        <v>-0.009649209061608975</v>
       </c>
       <c r="E95">
-        <v>0.12573213054345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0644167301376658</v>
+      </c>
+      <c r="F95">
+        <v>0.2046913244705215</v>
+      </c>
+      <c r="G95">
+        <v>0.1147476897410138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01602203065957336</v>
+        <v>0.1972954992008227</v>
       </c>
       <c r="C98">
-        <v>-0.1500597488398685</v>
+        <v>0.05038593653336251</v>
       </c>
       <c r="D98">
-        <v>0.1413271696940767</v>
+        <v>-0.01126916888071021</v>
       </c>
       <c r="E98">
-        <v>0.04180591640524476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07165025791831207</v>
+      </c>
+      <c r="F98">
+        <v>0.2371588564165723</v>
+      </c>
+      <c r="G98">
+        <v>0.005924552790636701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008874233327265618</v>
+        <v>0.008753990870907854</v>
       </c>
       <c r="C101">
-        <v>-0.01752100013111908</v>
+        <v>0.02126287406219362</v>
       </c>
       <c r="D101">
-        <v>0.008518390212520575</v>
+        <v>0.008384122459272364</v>
       </c>
       <c r="E101">
-        <v>-0.003486124844573919</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001364586286077045</v>
+      </c>
+      <c r="F101">
+        <v>-0.01529601615968494</v>
+      </c>
+      <c r="G101">
+        <v>-0.07544413132645494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01875013491639711</v>
+        <v>0.1172714996385356</v>
       </c>
       <c r="C102">
-        <v>-0.06866220966669036</v>
+        <v>0.08543113518426509</v>
       </c>
       <c r="D102">
-        <v>0.1332601262786892</v>
+        <v>0.0003964889397469046</v>
       </c>
       <c r="E102">
-        <v>-0.004381217243232999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03340169021805962</v>
+      </c>
+      <c r="F102">
+        <v>-0.04160049060868043</v>
+      </c>
+      <c r="G102">
+        <v>-0.002807533218464854</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001374944967701007</v>
+        <v>0.002715112901124922</v>
       </c>
       <c r="C103">
-        <v>-0.008777381570283252</v>
+        <v>0.002935867202266053</v>
       </c>
       <c r="D103">
-        <v>0.01945831192097392</v>
+        <v>-4.503444992513387e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01267615384539097</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0008622121334194707</v>
+      </c>
+      <c r="F103">
+        <v>-0.007444028801826196</v>
+      </c>
+      <c r="G103">
+        <v>-0.01473919458415192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9729770091045482</v>
+        <v>0.02116898807258746</v>
       </c>
       <c r="C104">
-        <v>0.1856902024962082</v>
+        <v>-0.0288398870353689</v>
       </c>
       <c r="D104">
-        <v>-0.0187035473644637</v>
+        <v>0.9868286467257622</v>
       </c>
       <c r="E104">
-        <v>-0.03865493604356848</v>
+        <v>-0.05958356352843627</v>
+      </c>
+      <c r="F104">
+        <v>-0.04042970267363418</v>
+      </c>
+      <c r="G104">
+        <v>0.02552595659457651</v>
       </c>
     </row>
   </sheetData>
